--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/create_basicMsg.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/create_basicMsg.xlsx
@@ -1,25 +1,805 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>basicInfo</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>set_pwd</t>
+  </si>
+  <si>
+    <t>Set Password</t>
+  </si>
+  <si>
+    <t>immediately_set</t>
+  </si>
+  <si>
+    <t>Set Now</t>
+  </si>
+  <si>
+    <t>temporarily_notSet</t>
+  </si>
+  <si>
+    <t>Set Later</t>
+  </si>
+  <si>
+    <t>send_email_for_pwd</t>
+  </si>
+  <si>
+    <t>If password is not set, the system will send default password by SMS and mail.</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>setPwd_tips_one</t>
+  </si>
+  <si>
+    <t>It must include three types of the capital letters, lowercase letters, numbers and special characters, and cannot be less than 8 characters nor exceed 30 characters</t>
+  </si>
+  <si>
+    <t>setPwd_tips_two</t>
+  </si>
+  <si>
+    <t>Special characters are as follows</t>
+  </si>
+  <si>
+    <t>setPwd_tips_three</t>
+  </si>
+  <si>
+    <t>Characters or complete words that cannot be included are as follows</t>
+  </si>
+  <si>
+    <t>setPwd_tips_four</t>
+  </si>
+  <si>
+    <t>Consecutive numbers cannot be included, such as</t>
+  </si>
+  <si>
+    <t>setPwd_tips_five</t>
+  </si>
+  <si>
+    <t>Consecutive or key mapping consecutive letters cannot be included, such as</t>
+  </si>
+  <si>
+    <t>setPwd_tips_six</t>
+  </si>
+  <si>
+    <t>Personal username cannot be included in the password</t>
+  </si>
+  <si>
+    <t>pwd_seted</t>
+  </si>
+  <si>
+    <t>'Password has been set'</t>
+  </si>
+  <si>
+    <t>confirm_pwd</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>error_tips_one</t>
+  </si>
+  <si>
+    <t>'The name cannot be blank, it only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, with at most 32 characters.'</t>
+  </si>
+  <si>
+    <t>error_tips_two</t>
+  </si>
+  <si>
+    <t>'Description only supports Chinese, numbers, capital and lowercase letters and English underline “_”, with at most 256 characters'</t>
+  </si>
+  <si>
+    <t>error_tips_three</t>
+  </si>
+  <si>
+    <t>'Must provide a name';</t>
+  </si>
+  <si>
+    <t>error_tips_four</t>
+  </si>
+  <si>
+    <t>'The name length cannot exceed 32 characters';</t>
+  </si>
+  <si>
+    <t>error_tips_five</t>
+  </si>
+  <si>
+    <t>'Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, and cannot exceed 32 characters';</t>
+  </si>
+  <si>
+    <t>error_tips_six</t>
+  </si>
+  <si>
+    <t>'Description cannot exceed 256 characters'</t>
+  </si>
+  <si>
+    <t>error_tips_seven</t>
+  </si>
+  <si>
+    <t>'Description only supports Chinese, numbers, capital and lowercase letters and English underline “_”;</t>
+  </si>
+  <si>
+    <t>error_tips_eight</t>
+  </si>
+  <si>
+    <t>'Passwords input the two times are consistent!';</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>基本信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设置密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>立即设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>暂不设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>若不设置密码，系统将以短信及邮件方式发送默认密码。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>特殊字符如下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不能出现的字符或完整单词，如下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不能出现连续数字，例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不能出现连续或键位连续字母，例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码中不能出现自己的用户名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>必须包含大写字母、小写字母、数字及特殊字符中三类，且不能少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>已设置密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不可为空，只支持中文、数字、大小写字母、英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不能为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称长度不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>两次输入的密码不一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +822,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,215 +1163,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="154.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>basicInfo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>基本信息</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>name</v>
-      </c>
-      <c r="B2" t="str">
-        <v>名称</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>userName</v>
-      </c>
-      <c r="B3" t="str">
-        <v>用户名</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>description</v>
-      </c>
-      <c r="B4" t="str">
-        <v>描述</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>set_pwd</v>
-      </c>
-      <c r="B5" t="str">
-        <v>设置密码</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>immediately_set</v>
-      </c>
-      <c r="B6" t="str">
-        <v>立即设置</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>temporarily_notSet</v>
-      </c>
-      <c r="B7" t="str">
-        <v>暂不设置</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>send_email_for_pwd</v>
-      </c>
-      <c r="B8" t="str">
-        <v>若不设置密码，系统将以短信及邮件方式发送默认密码。</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>pwd</v>
-      </c>
-      <c r="B9" t="str">
-        <v>密码</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>setPwd_tips_one</v>
-      </c>
-      <c r="B10" t="str">
-        <v>必须包含大写字母、小写字母、数字及特殊字符中三类，且不能少于8字符不能超过30字符</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>setPwd_tips_two</v>
-      </c>
-      <c r="B11" t="str">
-        <v>特殊字符如下</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>setPwd_tips_three</v>
-      </c>
-      <c r="B12" t="str">
-        <v>不能出现的字符或完整单词，如下</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>setPwd_tips_four</v>
-      </c>
-      <c r="B13" t="str">
-        <v>不能出现连续数字，例</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>setPwd_tips_five</v>
-      </c>
-      <c r="B14" t="str">
-        <v>不能出现连续或键位连续字母，例</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>setPwd_tips_six</v>
-      </c>
-      <c r="B15" t="str">
-        <v>密码中不能出现自己的用户名</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>pwd_seted</v>
-      </c>
-      <c r="B16" t="str">
-        <v>'已设置密码'</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>confirm_pwd</v>
-      </c>
-      <c r="B17" t="str">
-        <v>确认密码</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>error_tips_one</v>
-      </c>
-      <c r="B18" t="str">
-        <v>'名称不可为空，只支持中文、数字、大小写字母、英文下划线“_”及中划线“-”，且不能超过32字符'</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>error_tips_two</v>
-      </c>
-      <c r="B19" t="str">
-        <v>'描述只支持中文、数字、大小写字母及英文下划线“_”且不能超过256个字符'</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>error_tips_three</v>
-      </c>
-      <c r="B20" t="str">
-        <v>'名称不能为空';</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>error_tips_four</v>
-      </c>
-      <c r="B21" t="str">
-        <v>'名称长度不能超过32字符';</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>error_tips_five</v>
-      </c>
-      <c r="B22" t="str">
-        <v>'名称只支持中文、数字、大小写字母及英文下划线“”及中划线“-”，且不能超过32字符';</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>error_tips_six</v>
-      </c>
-      <c r="B23" t="str">
-        <v>'描述不能超过256个字符';</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>error_tips_seven</v>
-      </c>
-      <c r="B24" t="str">
-        <v>'描述只支持中文、数字、大小写字母及英文下划线“_”';</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>error_tips_eight</v>
-      </c>
-      <c r="B25" t="str">
-        <v>'两次输入的密码不一致';</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B25"/>
+    <ignoredError sqref="C1:C25 A1:A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>